--- a/Day09~/EXCEL/output/output17.xlsx
+++ b/Day09~/EXCEL/output/output17.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,216 +436,180 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Customer Name</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Sale Amount</t>
-        </is>
+          <t>John Smith</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>John Smith</t>
+          <t>Mary Harrison</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1200</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mary Harrison</t>
+          <t>Lucy Gomez</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1425</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lucy Gomez</t>
+          <t>Rupert Jones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1390</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rupert Jones</t>
+          <t>Jenny Walters</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1257</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jenny Walters</t>
+          <t>Samantha Donaldson</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1725</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Samantha Donaldson</t>
+          <t>Daniel Farber</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Customer Name</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Sale Amount</t>
-        </is>
+          <t>Laney Stone</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1367</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Daniel Farber</t>
+          <t>Roger Lipney</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1115</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Laney Stone</t>
+          <t>Thomas Haines</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1367</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Roger Lipney</t>
+          <t>Anushka Vaz</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2135</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Thomas Haines</t>
+          <t>Harriet Cooper</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1346</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Anushka Vaz</t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1560</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Harriet Cooper</t>
+          <t>Tony Song</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1852</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Customer Name</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Sale Amount</t>
-        </is>
+          <t>Mary Harrison</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1789</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>John Smith</t>
+          <t>Rachel Paz</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1350</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Tony Song</t>
+          <t>Lucy Gomez</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1167</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Mary Harrison</t>
+          <t>Susan Wallace</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Rachel Paz</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Lucy Gomez</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Susan Wallace</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
         <v>2280</v>
       </c>
     </row>
